--- a/AI/Flood_results/Aktau_r.xlsx
+++ b/AI/Flood_results/Aktau_r.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y367"/>
+  <dimension ref="A1:AC367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,26 @@
           <t>Риск паводков</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Неделя</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Риск паводков (неделя)</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Месяц</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Риск паводков (месяц)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -640,6 +660,18 @@
       <c r="Y2" t="n">
         <v>9.1</v>
       </c>
+      <c r="Z2" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -717,6 +749,18 @@
       <c r="Y3" t="n">
         <v>9.66</v>
       </c>
+      <c r="Z3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -794,6 +838,18 @@
       <c r="Y4" t="n">
         <v>9.66</v>
       </c>
+      <c r="Z4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -871,6 +927,18 @@
       <c r="Y5" t="n">
         <v>9.01</v>
       </c>
+      <c r="Z5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -948,6 +1016,18 @@
       <c r="Y6" t="n">
         <v>9.68</v>
       </c>
+      <c r="Z6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1025,6 +1105,18 @@
       <c r="Y7" t="n">
         <v>10</v>
       </c>
+      <c r="Z7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1102,6 +1194,18 @@
       <c r="Y8" t="n">
         <v>10.67</v>
       </c>
+      <c r="Z8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1179,6 +1283,18 @@
       <c r="Y9" t="n">
         <v>10.61</v>
       </c>
+      <c r="Z9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1256,6 +1372,18 @@
       <c r="Y10" t="n">
         <v>10.42</v>
       </c>
+      <c r="Z10" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1333,6 +1461,18 @@
       <c r="Y11" t="n">
         <v>10.93</v>
       </c>
+      <c r="Z11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1410,6 +1550,18 @@
       <c r="Y12" t="n">
         <v>10.86</v>
       </c>
+      <c r="Z12" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1487,6 +1639,18 @@
       <c r="Y13" t="n">
         <v>10.54</v>
       </c>
+      <c r="Z13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1564,6 +1728,18 @@
       <c r="Y14" t="n">
         <v>9.57</v>
       </c>
+      <c r="Z14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1641,6 +1817,18 @@
       <c r="Y15" t="n">
         <v>10.12</v>
       </c>
+      <c r="Z15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1718,6 +1906,18 @@
       <c r="Y16" t="n">
         <v>10.65</v>
       </c>
+      <c r="Z16" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1795,6 +1995,18 @@
       <c r="Y17" t="n">
         <v>10.58</v>
       </c>
+      <c r="Z17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1872,6 +2084,18 @@
       <c r="Y18" t="n">
         <v>10.71</v>
       </c>
+      <c r="Z18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1949,6 +2173,18 @@
       <c r="Y19" t="n">
         <v>10.73</v>
       </c>
+      <c r="Z19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2026,6 +2262,18 @@
       <c r="Y20" t="n">
         <v>10.29</v>
       </c>
+      <c r="Z20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2103,6 +2351,18 @@
       <c r="Y21" t="n">
         <v>9.550000000000001</v>
       </c>
+      <c r="Z21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2180,6 +2440,18 @@
       <c r="Y22" t="n">
         <v>8.91</v>
       </c>
+      <c r="Z22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2257,6 +2529,18 @@
       <c r="Y23" t="n">
         <v>9.380000000000001</v>
       </c>
+      <c r="Z23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2334,6 +2618,18 @@
       <c r="Y24" t="n">
         <v>10.6</v>
       </c>
+      <c r="Z24" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2411,6 +2707,18 @@
       <c r="Y25" t="n">
         <v>9.84</v>
       </c>
+      <c r="Z25" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2488,6 +2796,18 @@
       <c r="Y26" t="n">
         <v>10.53</v>
       </c>
+      <c r="Z26" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2565,6 +2885,18 @@
       <c r="Y27" t="n">
         <v>10.68</v>
       </c>
+      <c r="Z27" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2642,6 +2974,18 @@
       <c r="Y28" t="n">
         <v>10.68</v>
       </c>
+      <c r="Z28" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2719,6 +3063,18 @@
       <c r="Y29" t="n">
         <v>8.880000000000001</v>
       </c>
+      <c r="Z29" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2796,6 +3152,18 @@
       <c r="Y30" t="n">
         <v>9.65</v>
       </c>
+      <c r="Z30" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2873,6 +3241,18 @@
       <c r="Y31" t="n">
         <v>9.550000000000001</v>
       </c>
+      <c r="Z31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>10.05</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2950,6 +3330,18 @@
       <c r="Y32" t="n">
         <v>10.44</v>
       </c>
+      <c r="Z32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3027,6 +3419,18 @@
       <c r="Y33" t="n">
         <v>9.029999999999999</v>
       </c>
+      <c r="Z33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3104,6 +3508,18 @@
       <c r="Y34" t="n">
         <v>8.4</v>
       </c>
+      <c r="Z34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3181,6 +3597,18 @@
       <c r="Y35" t="n">
         <v>8.27</v>
       </c>
+      <c r="Z35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3258,6 +3686,18 @@
       <c r="Y36" t="n">
         <v>8.44</v>
       </c>
+      <c r="Z36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3335,6 +3775,18 @@
       <c r="Y37" t="n">
         <v>10.46</v>
       </c>
+      <c r="Z37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3412,6 +3864,18 @@
       <c r="Y38" t="n">
         <v>11.08</v>
       </c>
+      <c r="Z38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3489,6 +3953,18 @@
       <c r="Y39" t="n">
         <v>10.52</v>
       </c>
+      <c r="Z39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3566,6 +4042,18 @@
       <c r="Y40" t="n">
         <v>10.52</v>
       </c>
+      <c r="Z40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3643,6 +4131,18 @@
       <c r="Y41" t="n">
         <v>9.390000000000001</v>
       </c>
+      <c r="Z41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3720,6 +4220,18 @@
       <c r="Y42" t="n">
         <v>10.64</v>
       </c>
+      <c r="Z42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3797,6 +4309,18 @@
       <c r="Y43" t="n">
         <v>11.35</v>
       </c>
+      <c r="Z43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3874,6 +4398,18 @@
       <c r="Y44" t="n">
         <v>11.06</v>
       </c>
+      <c r="Z44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3951,6 +4487,18 @@
       <c r="Y45" t="n">
         <v>11</v>
       </c>
+      <c r="Z45" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4028,6 +4576,18 @@
       <c r="Y46" t="n">
         <v>10.69</v>
       </c>
+      <c r="Z46" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4105,6 +4665,18 @@
       <c r="Y47" t="n">
         <v>10.33</v>
       </c>
+      <c r="Z47" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4182,6 +4754,18 @@
       <c r="Y48" t="n">
         <v>9.77</v>
       </c>
+      <c r="Z48" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4259,6 +4843,18 @@
       <c r="Y49" t="n">
         <v>10.91</v>
       </c>
+      <c r="Z49" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4336,6 +4932,18 @@
       <c r="Y50" t="n">
         <v>11.27</v>
       </c>
+      <c r="Z50" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4413,6 +5021,18 @@
       <c r="Y51" t="n">
         <v>11.13</v>
       </c>
+      <c r="Z51" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4490,6 +5110,18 @@
       <c r="Y52" t="n">
         <v>11.08</v>
       </c>
+      <c r="Z52" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4567,6 +5199,18 @@
       <c r="Y53" t="n">
         <v>11.45</v>
       </c>
+      <c r="Z53" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4644,6 +5288,18 @@
       <c r="Y54" t="n">
         <v>10.94</v>
       </c>
+      <c r="Z54" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4721,6 +5377,18 @@
       <c r="Y55" t="n">
         <v>10.84</v>
       </c>
+      <c r="Z55" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4798,6 +5466,18 @@
       <c r="Y56" t="n">
         <v>10.92</v>
       </c>
+      <c r="Z56" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4875,6 +5555,18 @@
       <c r="Y57" t="n">
         <v>10.85</v>
       </c>
+      <c r="Z57" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4952,6 +5644,18 @@
       <c r="Y58" t="n">
         <v>11.15</v>
       </c>
+      <c r="Z58" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5029,6 +5733,18 @@
       <c r="Y59" t="n">
         <v>11.91</v>
       </c>
+      <c r="Z59" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5106,6 +5822,18 @@
       <c r="Y60" t="n">
         <v>11.49</v>
       </c>
+      <c r="Z60" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5183,6 +5911,18 @@
       <c r="Y61" t="n">
         <v>11.2</v>
       </c>
+      <c r="Z61" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5260,6 +6000,18 @@
       <c r="Y62" t="n">
         <v>11.6</v>
       </c>
+      <c r="Z62" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5337,6 +6089,18 @@
       <c r="Y63" t="n">
         <v>10.89</v>
       </c>
+      <c r="Z63" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5414,6 +6178,18 @@
       <c r="Y64" t="n">
         <v>10.95</v>
       </c>
+      <c r="Z64" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5491,6 +6267,18 @@
       <c r="Y65" t="n">
         <v>11.17</v>
       </c>
+      <c r="Z65" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5568,6 +6356,18 @@
       <c r="Y66" t="n">
         <v>10.85</v>
       </c>
+      <c r="Z66" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5645,6 +6445,18 @@
       <c r="Y67" t="n">
         <v>10.53</v>
       </c>
+      <c r="Z67" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5722,6 +6534,18 @@
       <c r="Y68" t="n">
         <v>10.84</v>
       </c>
+      <c r="Z68" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5799,6 +6623,18 @@
       <c r="Y69" t="n">
         <v>10.93</v>
       </c>
+      <c r="Z69" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5876,6 +6712,18 @@
       <c r="Y70" t="n">
         <v>11.03</v>
       </c>
+      <c r="Z70" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5953,6 +6801,18 @@
       <c r="Y71" t="n">
         <v>11.27</v>
       </c>
+      <c r="Z71" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -6030,6 +6890,18 @@
       <c r="Y72" t="n">
         <v>11.1</v>
       </c>
+      <c r="Z72" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -6107,6 +6979,18 @@
       <c r="Y73" t="n">
         <v>11.1</v>
       </c>
+      <c r="Z73" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -6184,6 +7068,18 @@
       <c r="Y74" t="n">
         <v>11.17</v>
       </c>
+      <c r="Z74" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -6261,6 +7157,18 @@
       <c r="Y75" t="n">
         <v>11.03</v>
       </c>
+      <c r="Z75" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -6338,6 +7246,18 @@
       <c r="Y76" t="n">
         <v>10.98</v>
       </c>
+      <c r="Z76" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -6415,6 +7335,18 @@
       <c r="Y77" t="n">
         <v>11.36</v>
       </c>
+      <c r="Z77" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -6492,6 +7424,18 @@
       <c r="Y78" t="n">
         <v>11.46</v>
       </c>
+      <c r="Z78" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -6569,6 +7513,18 @@
       <c r="Y79" t="n">
         <v>11.43</v>
       </c>
+      <c r="Z79" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -6646,6 +7602,18 @@
       <c r="Y80" t="n">
         <v>11.15</v>
       </c>
+      <c r="Z80" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -6723,6 +7691,18 @@
       <c r="Y81" t="n">
         <v>11.15</v>
       </c>
+      <c r="Z81" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -6800,6 +7780,18 @@
       <c r="Y82" t="n">
         <v>10.87</v>
       </c>
+      <c r="Z82" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6877,6 +7869,18 @@
       <c r="Y83" t="n">
         <v>11.39</v>
       </c>
+      <c r="Z83" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6954,6 +7958,18 @@
       <c r="Y84" t="n">
         <v>11.16</v>
       </c>
+      <c r="Z84" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -7031,6 +8047,18 @@
       <c r="Y85" t="n">
         <v>11.3</v>
       </c>
+      <c r="Z85" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -7108,6 +8136,18 @@
       <c r="Y86" t="n">
         <v>11.57</v>
       </c>
+      <c r="Z86" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -7185,6 +8225,18 @@
       <c r="Y87" t="n">
         <v>10.96</v>
       </c>
+      <c r="Z87" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -7262,6 +8314,18 @@
       <c r="Y88" t="n">
         <v>10.85</v>
       </c>
+      <c r="Z88" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -7339,6 +8403,18 @@
       <c r="Y89" t="n">
         <v>11.08</v>
       </c>
+      <c r="Z89" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -7416,6 +8492,18 @@
       <c r="Y90" t="n">
         <v>11.2</v>
       </c>
+      <c r="Z90" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -7493,6 +8581,18 @@
       <c r="Y91" t="n">
         <v>10.98</v>
       </c>
+      <c r="Z91" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -7570,6 +8670,18 @@
       <c r="Y92" t="n">
         <v>11.17</v>
       </c>
+      <c r="Z92" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -7647,6 +8759,18 @@
       <c r="Y93" t="n">
         <v>4.46</v>
       </c>
+      <c r="Z93" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -7724,6 +8848,18 @@
       <c r="Y94" t="n">
         <v>4.42</v>
       </c>
+      <c r="Z94" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -7801,6 +8937,18 @@
       <c r="Y95" t="n">
         <v>4.44</v>
       </c>
+      <c r="Z95" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7878,6 +9026,18 @@
       <c r="Y96" t="n">
         <v>4.5</v>
       </c>
+      <c r="Z96" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7955,6 +9115,18 @@
       <c r="Y97" t="n">
         <v>4.48</v>
       </c>
+      <c r="Z97" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -8032,6 +9204,18 @@
       <c r="Y98" t="n">
         <v>4.58</v>
       </c>
+      <c r="Z98" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -8109,6 +9293,18 @@
       <c r="Y99" t="n">
         <v>4.46</v>
       </c>
+      <c r="Z99" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -8186,6 +9382,18 @@
       <c r="Y100" t="n">
         <v>4.5</v>
       </c>
+      <c r="Z100" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -8263,6 +9471,18 @@
       <c r="Y101" t="n">
         <v>4.54</v>
       </c>
+      <c r="Z101" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -8340,6 +9560,18 @@
       <c r="Y102" t="n">
         <v>4.48</v>
       </c>
+      <c r="Z102" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -8417,6 +9649,18 @@
       <c r="Y103" t="n">
         <v>4.52</v>
       </c>
+      <c r="Z103" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -8494,6 +9738,18 @@
       <c r="Y104" t="n">
         <v>4.51</v>
       </c>
+      <c r="Z104" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -8571,6 +9827,18 @@
       <c r="Y105" t="n">
         <v>4.52</v>
       </c>
+      <c r="Z105" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -8648,6 +9916,18 @@
       <c r="Y106" t="n">
         <v>4.54</v>
       </c>
+      <c r="Z106" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -8725,6 +10005,18 @@
       <c r="Y107" t="n">
         <v>4.51</v>
       </c>
+      <c r="Z107" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -8802,6 +10094,18 @@
       <c r="Y108" t="n">
         <v>4.51</v>
       </c>
+      <c r="Z108" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -8879,6 +10183,18 @@
       <c r="Y109" t="n">
         <v>4.48</v>
       </c>
+      <c r="Z109" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -8956,6 +10272,18 @@
       <c r="Y110" t="n">
         <v>4.47</v>
       </c>
+      <c r="Z110" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -9033,6 +10361,18 @@
       <c r="Y111" t="n">
         <v>4.52</v>
       </c>
+      <c r="Z111" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -9110,6 +10450,18 @@
       <c r="Y112" t="n">
         <v>4.47</v>
       </c>
+      <c r="Z112" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -9187,6 +10539,18 @@
       <c r="Y113" t="n">
         <v>4.46</v>
       </c>
+      <c r="Z113" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -9264,6 +10628,18 @@
       <c r="Y114" t="n">
         <v>4.43</v>
       </c>
+      <c r="Z114" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -9341,6 +10717,18 @@
       <c r="Y115" t="n">
         <v>4.46</v>
       </c>
+      <c r="Z115" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -9418,6 +10806,18 @@
       <c r="Y116" t="n">
         <v>4.54</v>
       </c>
+      <c r="Z116" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -9495,6 +10895,18 @@
       <c r="Y117" t="n">
         <v>4.48</v>
       </c>
+      <c r="Z117" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -9572,6 +10984,18 @@
       <c r="Y118" t="n">
         <v>4.47</v>
       </c>
+      <c r="Z118" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -9649,6 +11073,18 @@
       <c r="Y119" t="n">
         <v>4.47</v>
       </c>
+      <c r="Z119" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -9726,6 +11162,18 @@
       <c r="Y120" t="n">
         <v>4.44</v>
       </c>
+      <c r="Z120" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -9803,6 +11251,18 @@
       <c r="Y121" t="n">
         <v>4.46</v>
       </c>
+      <c r="Z121" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -9880,6 +11340,18 @@
       <c r="Y122" t="n">
         <v>4.58</v>
       </c>
+      <c r="Z122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -9957,6 +11429,18 @@
       <c r="Y123" t="n">
         <v>4.46</v>
       </c>
+      <c r="Z123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>4.49</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -10034,6 +11518,18 @@
       <c r="Y124" t="n">
         <v>4.45</v>
       </c>
+      <c r="Z124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -10111,6 +11607,18 @@
       <c r="Y125" t="n">
         <v>4.52</v>
       </c>
+      <c r="Z125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -10188,6 +11696,18 @@
       <c r="Y126" t="n">
         <v>4.54</v>
       </c>
+      <c r="Z126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -10265,6 +11785,18 @@
       <c r="Y127" t="n">
         <v>4.47</v>
       </c>
+      <c r="Z127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -10342,6 +11874,18 @@
       <c r="Y128" t="n">
         <v>4.46</v>
       </c>
+      <c r="Z128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -10419,6 +11963,18 @@
       <c r="Y129" t="n">
         <v>4.42</v>
       </c>
+      <c r="Z129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -10496,6 +12052,18 @@
       <c r="Y130" t="n">
         <v>4.56</v>
       </c>
+      <c r="Z130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -10573,6 +12141,18 @@
       <c r="Y131" t="n">
         <v>4.46</v>
       </c>
+      <c r="Z131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -10650,6 +12230,18 @@
       <c r="Y132" t="n">
         <v>4.51</v>
       </c>
+      <c r="Z132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -10727,6 +12319,18 @@
       <c r="Y133" t="n">
         <v>4.54</v>
       </c>
+      <c r="Z133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -10804,6 +12408,18 @@
       <c r="Y134" t="n">
         <v>4.48</v>
       </c>
+      <c r="Z134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -10881,6 +12497,18 @@
       <c r="Y135" t="n">
         <v>4.64</v>
       </c>
+      <c r="Z135" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -10958,6 +12586,18 @@
       <c r="Y136" t="n">
         <v>4.5</v>
       </c>
+      <c r="Z136" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -11035,6 +12675,18 @@
       <c r="Y137" t="n">
         <v>4.51</v>
       </c>
+      <c r="Z137" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -11112,6 +12764,18 @@
       <c r="Y138" t="n">
         <v>4.53</v>
       </c>
+      <c r="Z138" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -11189,6 +12853,18 @@
       <c r="Y139" t="n">
         <v>4.54</v>
       </c>
+      <c r="Z139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -11266,6 +12942,18 @@
       <c r="Y140" t="n">
         <v>4.46</v>
       </c>
+      <c r="Z140" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -11343,6 +13031,18 @@
       <c r="Y141" t="n">
         <v>4.48</v>
       </c>
+      <c r="Z141" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -11420,6 +13120,18 @@
       <c r="Y142" t="n">
         <v>4.49</v>
       </c>
+      <c r="Z142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -11497,6 +13209,18 @@
       <c r="Y143" t="n">
         <v>4.47</v>
       </c>
+      <c r="Z143" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -11574,6 +13298,18 @@
       <c r="Y144" t="n">
         <v>4.51</v>
       </c>
+      <c r="Z144" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -11651,6 +13387,18 @@
       <c r="Y145" t="n">
         <v>4.53</v>
       </c>
+      <c r="Z145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -11728,6 +13476,18 @@
       <c r="Y146" t="n">
         <v>4.53</v>
       </c>
+      <c r="Z146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -11805,6 +13565,18 @@
       <c r="Y147" t="n">
         <v>4.52</v>
       </c>
+      <c r="Z147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -11882,6 +13654,18 @@
       <c r="Y148" t="n">
         <v>4.51</v>
       </c>
+      <c r="Z148" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -11959,6 +13743,18 @@
       <c r="Y149" t="n">
         <v>4.5</v>
       </c>
+      <c r="Z149" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -12036,6 +13832,18 @@
       <c r="Y150" t="n">
         <v>4.5</v>
       </c>
+      <c r="Z150" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -12113,6 +13921,18 @@
       <c r="Y151" t="n">
         <v>4.56</v>
       </c>
+      <c r="Z151" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -12190,6 +14010,18 @@
       <c r="Y152" t="n">
         <v>4.48</v>
       </c>
+      <c r="Z152" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -12267,6 +14099,18 @@
       <c r="Y153" t="n">
         <v>4.54</v>
       </c>
+      <c r="Z153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -12344,6 +14188,18 @@
       <c r="Y154" t="n">
         <v>4.51</v>
       </c>
+      <c r="Z154" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -12421,6 +14277,18 @@
       <c r="Y155" t="n">
         <v>5.6</v>
       </c>
+      <c r="Z155" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -12498,6 +14366,18 @@
       <c r="Y156" t="n">
         <v>5.69</v>
       </c>
+      <c r="Z156" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -12575,6 +14455,18 @@
       <c r="Y157" t="n">
         <v>5.63</v>
       </c>
+      <c r="Z157" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -12652,6 +14544,18 @@
       <c r="Y158" t="n">
         <v>5.63</v>
       </c>
+      <c r="Z158" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -12729,6 +14633,18 @@
       <c r="Y159" t="n">
         <v>5.8</v>
       </c>
+      <c r="Z159" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -12806,6 +14722,18 @@
       <c r="Y160" t="n">
         <v>5.54</v>
       </c>
+      <c r="Z160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -12883,6 +14811,18 @@
       <c r="Y161" t="n">
         <v>5.64</v>
       </c>
+      <c r="Z161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -12960,6 +14900,18 @@
       <c r="Y162" t="n">
         <v>5.56</v>
       </c>
+      <c r="Z162" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -13037,6 +14989,18 @@
       <c r="Y163" t="n">
         <v>5.73</v>
       </c>
+      <c r="Z163" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -13114,6 +15078,18 @@
       <c r="Y164" t="n">
         <v>5.72</v>
       </c>
+      <c r="Z164" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -13191,6 +15167,18 @@
       <c r="Y165" t="n">
         <v>5.74</v>
       </c>
+      <c r="Z165" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -13268,6 +15256,18 @@
       <c r="Y166" t="n">
         <v>5.63</v>
       </c>
+      <c r="Z166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -13345,6 +15345,18 @@
       <c r="Y167" t="n">
         <v>5.62</v>
       </c>
+      <c r="Z167" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -13422,6 +15434,18 @@
       <c r="Y168" t="n">
         <v>5.65</v>
       </c>
+      <c r="Z168" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -13499,6 +15523,18 @@
       <c r="Y169" t="n">
         <v>5.7</v>
       </c>
+      <c r="Z169" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -13576,6 +15612,18 @@
       <c r="Y170" t="n">
         <v>5.56</v>
       </c>
+      <c r="Z170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -13653,6 +15701,18 @@
       <c r="Y171" t="n">
         <v>5.74</v>
       </c>
+      <c r="Z171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -13730,6 +15790,18 @@
       <c r="Y172" t="n">
         <v>5.7</v>
       </c>
+      <c r="Z172" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -13807,6 +15879,18 @@
       <c r="Y173" t="n">
         <v>5.64</v>
       </c>
+      <c r="Z173" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -13884,6 +15968,18 @@
       <c r="Y174" t="n">
         <v>5.78</v>
       </c>
+      <c r="Z174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -13961,6 +16057,18 @@
       <c r="Y175" t="n">
         <v>5.84</v>
       </c>
+      <c r="Z175" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -14038,6 +16146,18 @@
       <c r="Y176" t="n">
         <v>5.68</v>
       </c>
+      <c r="Z176" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -14115,6 +16235,18 @@
       <c r="Y177" t="n">
         <v>5.66</v>
       </c>
+      <c r="Z177" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -14192,6 +16324,18 @@
       <c r="Y178" t="n">
         <v>5.56</v>
       </c>
+      <c r="Z178" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -14269,6 +16413,18 @@
       <c r="Y179" t="n">
         <v>5.55</v>
       </c>
+      <c r="Z179" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -14346,6 +16502,18 @@
       <c r="Y180" t="n">
         <v>5.08</v>
       </c>
+      <c r="Z180" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -14423,6 +16591,18 @@
       <c r="Y181" t="n">
         <v>5.6</v>
       </c>
+      <c r="Z181" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -14500,6 +16680,18 @@
       <c r="Y182" t="n">
         <v>5.78</v>
       </c>
+      <c r="Z182" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -14577,6 +16769,18 @@
       <c r="Y183" t="n">
         <v>20.9</v>
       </c>
+      <c r="Z183" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -14654,6 +16858,18 @@
       <c r="Y184" t="n">
         <v>20.09</v>
       </c>
+      <c r="Z184" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -14731,6 +16947,18 @@
       <c r="Y185" t="n">
         <v>19.6</v>
       </c>
+      <c r="Z185" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -14808,6 +17036,18 @@
       <c r="Y186" t="n">
         <v>19.87</v>
       </c>
+      <c r="Z186" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -14885,6 +17125,18 @@
       <c r="Y187" t="n">
         <v>19.98</v>
       </c>
+      <c r="Z187" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -14962,6 +17214,18 @@
       <c r="Y188" t="n">
         <v>20.16</v>
       </c>
+      <c r="Z188" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -15039,6 +17303,18 @@
       <c r="Y189" t="n">
         <v>20.41</v>
       </c>
+      <c r="Z189" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -15116,6 +17392,18 @@
       <c r="Y190" t="n">
         <v>20.52</v>
       </c>
+      <c r="Z190" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -15193,6 +17481,18 @@
       <c r="Y191" t="n">
         <v>20.66</v>
       </c>
+      <c r="Z191" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -15270,6 +17570,18 @@
       <c r="Y192" t="n">
         <v>20.16</v>
       </c>
+      <c r="Z192" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -15347,6 +17659,18 @@
       <c r="Y193" t="n">
         <v>20.45</v>
       </c>
+      <c r="Z193" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -15424,6 +17748,18 @@
       <c r="Y194" t="n">
         <v>20.54</v>
       </c>
+      <c r="Z194" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -15501,6 +17837,18 @@
       <c r="Y195" t="n">
         <v>20.48</v>
       </c>
+      <c r="Z195" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -15578,6 +17926,18 @@
       <c r="Y196" t="n">
         <v>19.94</v>
       </c>
+      <c r="Z196" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -15655,6 +18015,18 @@
       <c r="Y197" t="n">
         <v>19.64</v>
       </c>
+      <c r="Z197" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -15732,6 +18104,18 @@
       <c r="Y198" t="n">
         <v>19.26</v>
       </c>
+      <c r="Z198" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -15809,6 +18193,18 @@
       <c r="Y199" t="n">
         <v>20.12</v>
       </c>
+      <c r="Z199" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -15886,6 +18282,18 @@
       <c r="Y200" t="n">
         <v>19.93</v>
       </c>
+      <c r="Z200" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -15963,6 +18371,18 @@
       <c r="Y201" t="n">
         <v>19.55</v>
       </c>
+      <c r="Z201" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -16040,6 +18460,18 @@
       <c r="Y202" t="n">
         <v>20.68</v>
       </c>
+      <c r="Z202" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -16117,6 +18549,18 @@
       <c r="Y203" t="n">
         <v>19.8</v>
       </c>
+      <c r="Z203" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -16194,6 +18638,18 @@
       <c r="Y204" t="n">
         <v>20.27</v>
       </c>
+      <c r="Z204" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -16271,6 +18727,18 @@
       <c r="Y205" t="n">
         <v>20.23</v>
       </c>
+      <c r="Z205" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -16348,6 +18816,18 @@
       <c r="Y206" t="n">
         <v>20</v>
       </c>
+      <c r="Z206" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -16425,6 +18905,18 @@
       <c r="Y207" t="n">
         <v>21.64</v>
       </c>
+      <c r="Z207" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -16502,6 +18994,18 @@
       <c r="Y208" t="n">
         <v>20.65</v>
       </c>
+      <c r="Z208" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -16579,6 +19083,18 @@
       <c r="Y209" t="n">
         <v>19.89</v>
       </c>
+      <c r="Z209" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -16656,6 +19172,18 @@
       <c r="Y210" t="n">
         <v>20.25</v>
       </c>
+      <c r="Z210" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -16733,6 +19261,18 @@
       <c r="Y211" t="n">
         <v>20.27</v>
       </c>
+      <c r="Z211" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -16810,6 +19350,18 @@
       <c r="Y212" t="n">
         <v>20.45</v>
       </c>
+      <c r="Z212" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -16887,6 +19439,18 @@
       <c r="Y213" t="n">
         <v>19.42</v>
       </c>
+      <c r="Z213" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -16964,6 +19528,18 @@
       <c r="Y214" t="n">
         <v>19.96</v>
       </c>
+      <c r="Z214" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -17041,6 +19617,18 @@
       <c r="Y215" t="n">
         <v>19.84</v>
       </c>
+      <c r="Z215" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -17118,6 +19706,18 @@
       <c r="Y216" t="n">
         <v>19.87</v>
       </c>
+      <c r="Z216" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -17195,6 +19795,18 @@
       <c r="Y217" t="n">
         <v>20.3</v>
       </c>
+      <c r="Z217" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -17272,6 +19884,18 @@
       <c r="Y218" t="n">
         <v>20.56</v>
       </c>
+      <c r="Z218" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -17349,6 +19973,18 @@
       <c r="Y219" t="n">
         <v>21.02</v>
       </c>
+      <c r="Z219" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -17426,6 +20062,18 @@
       <c r="Y220" t="n">
         <v>19.93</v>
       </c>
+      <c r="Z220" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -17503,6 +20151,18 @@
       <c r="Y221" t="n">
         <v>20.23</v>
       </c>
+      <c r="Z221" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -17580,6 +20240,18 @@
       <c r="Y222" t="n">
         <v>20.29</v>
       </c>
+      <c r="Z222" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -17657,6 +20329,18 @@
       <c r="Y223" t="n">
         <v>19.53</v>
       </c>
+      <c r="Z223" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -17734,6 +20418,18 @@
       <c r="Y224" t="n">
         <v>19.15</v>
       </c>
+      <c r="Z224" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -17811,6 +20507,18 @@
       <c r="Y225" t="n">
         <v>17.66</v>
       </c>
+      <c r="Z225" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -17888,6 +20596,18 @@
       <c r="Y226" t="n">
         <v>20.02</v>
       </c>
+      <c r="Z226" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -17965,6 +20685,18 @@
       <c r="Y227" t="n">
         <v>20.48</v>
       </c>
+      <c r="Z227" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -18042,6 +20774,18 @@
       <c r="Y228" t="n">
         <v>20.2</v>
       </c>
+      <c r="Z228" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -18119,6 +20863,18 @@
       <c r="Y229" t="n">
         <v>19.87</v>
       </c>
+      <c r="Z229" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -18196,6 +20952,18 @@
       <c r="Y230" t="n">
         <v>20.02</v>
       </c>
+      <c r="Z230" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -18273,6 +21041,18 @@
       <c r="Y231" t="n">
         <v>18.18</v>
       </c>
+      <c r="Z231" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -18350,6 +21130,18 @@
       <c r="Y232" t="n">
         <v>16.43</v>
       </c>
+      <c r="Z232" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -18427,6 +21219,18 @@
       <c r="Y233" t="n">
         <v>15.93</v>
       </c>
+      <c r="Z233" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -18504,6 +21308,18 @@
       <c r="Y234" t="n">
         <v>16.83</v>
       </c>
+      <c r="Z234" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -18581,6 +21397,18 @@
       <c r="Y235" t="n">
         <v>19.46</v>
       </c>
+      <c r="Z235" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -18658,6 +21486,18 @@
       <c r="Y236" t="n">
         <v>19.21</v>
       </c>
+      <c r="Z236" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -18735,6 +21575,18 @@
       <c r="Y237" t="n">
         <v>19.55</v>
       </c>
+      <c r="Z237" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -18812,6 +21664,18 @@
       <c r="Y238" t="n">
         <v>17.46</v>
       </c>
+      <c r="Z238" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -18889,6 +21753,18 @@
       <c r="Y239" t="n">
         <v>19.26</v>
       </c>
+      <c r="Z239" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -18966,6 +21842,18 @@
       <c r="Y240" t="n">
         <v>18.49</v>
       </c>
+      <c r="Z240" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -19043,6 +21931,18 @@
       <c r="Y241" t="n">
         <v>17.42</v>
       </c>
+      <c r="Z241" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -19120,6 +22020,18 @@
       <c r="Y242" t="n">
         <v>16.02</v>
       </c>
+      <c r="Z242" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -19197,6 +22109,18 @@
       <c r="Y243" t="n">
         <v>18.88</v>
       </c>
+      <c r="Z243" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -19274,6 +22198,18 @@
       <c r="Y244" t="n">
         <v>16.93</v>
       </c>
+      <c r="Z244" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -19351,6 +22287,18 @@
       <c r="Y245" t="n">
         <v>16.61</v>
       </c>
+      <c r="Z245" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -19428,6 +22376,18 @@
       <c r="Y246" t="n">
         <v>17.78</v>
       </c>
+      <c r="Z246" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -19505,6 +22465,18 @@
       <c r="Y247" t="n">
         <v>17.63</v>
       </c>
+      <c r="Z247" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -19582,6 +22554,18 @@
       <c r="Y248" t="n">
         <v>17.94</v>
       </c>
+      <c r="Z248" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -19659,6 +22643,18 @@
       <c r="Y249" t="n">
         <v>18.24</v>
       </c>
+      <c r="Z249" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -19736,6 +22732,18 @@
       <c r="Y250" t="n">
         <v>18.51</v>
       </c>
+      <c r="Z250" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -19813,6 +22821,18 @@
       <c r="Y251" t="n">
         <v>20.56</v>
       </c>
+      <c r="Z251" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -19890,6 +22910,18 @@
       <c r="Y252" t="n">
         <v>18.62</v>
       </c>
+      <c r="Z252" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -19967,6 +22999,18 @@
       <c r="Y253" t="n">
         <v>17.55</v>
       </c>
+      <c r="Z253" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -20044,6 +23088,18 @@
       <c r="Y254" t="n">
         <v>17.66</v>
       </c>
+      <c r="Z254" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -20121,6 +23177,18 @@
       <c r="Y255" t="n">
         <v>17.62</v>
       </c>
+      <c r="Z255" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -20198,6 +23266,18 @@
       <c r="Y256" t="n">
         <v>17.63</v>
       </c>
+      <c r="Z256" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -20275,6 +23355,18 @@
       <c r="Y257" t="n">
         <v>17.6</v>
       </c>
+      <c r="Z257" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -20352,6 +23444,18 @@
       <c r="Y258" t="n">
         <v>17.55</v>
       </c>
+      <c r="Z258" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -20429,6 +23533,18 @@
       <c r="Y259" t="n">
         <v>17.52</v>
       </c>
+      <c r="Z259" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -20506,6 +23622,18 @@
       <c r="Y260" t="n">
         <v>18.74</v>
       </c>
+      <c r="Z260" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -20583,6 +23711,18 @@
       <c r="Y261" t="n">
         <v>17.95</v>
       </c>
+      <c r="Z261" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -20660,6 +23800,18 @@
       <c r="Y262" t="n">
         <v>17.44</v>
       </c>
+      <c r="Z262" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -20737,6 +23889,18 @@
       <c r="Y263" t="n">
         <v>17.95</v>
       </c>
+      <c r="Z263" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -20814,6 +23978,18 @@
       <c r="Y264" t="n">
         <v>17.92</v>
       </c>
+      <c r="Z264" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -20891,6 +24067,18 @@
       <c r="Y265" t="n">
         <v>17.2</v>
       </c>
+      <c r="Z265" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -20968,6 +24156,18 @@
       <c r="Y266" t="n">
         <v>17.34</v>
       </c>
+      <c r="Z266" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -21045,6 +24245,18 @@
       <c r="Y267" t="n">
         <v>17.18</v>
       </c>
+      <c r="Z267" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -21122,6 +24334,18 @@
       <c r="Y268" t="n">
         <v>17.02</v>
       </c>
+      <c r="Z268" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -21199,6 +24423,18 @@
       <c r="Y269" t="n">
         <v>16.85</v>
       </c>
+      <c r="Z269" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -21276,6 +24512,18 @@
       <c r="Y270" t="n">
         <v>15.25</v>
       </c>
+      <c r="Z270" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -21353,6 +24601,18 @@
       <c r="Y271" t="n">
         <v>16.7</v>
       </c>
+      <c r="Z271" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -21430,6 +24690,18 @@
       <c r="Y272" t="n">
         <v>16.72</v>
       </c>
+      <c r="Z272" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -21507,6 +24779,18 @@
       <c r="Y273" t="n">
         <v>14.16</v>
       </c>
+      <c r="Z273" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -21584,6 +24868,18 @@
       <c r="Y274" t="n">
         <v>14.21</v>
       </c>
+      <c r="Z274" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>17.37</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -21661,6 +24957,18 @@
       <c r="Y275" t="n">
         <v>9.699999999999999</v>
       </c>
+      <c r="Z275" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -21738,6 +25046,18 @@
       <c r="Y276" t="n">
         <v>10.65</v>
       </c>
+      <c r="Z276" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -21815,6 +25135,18 @@
       <c r="Y277" t="n">
         <v>9</v>
       </c>
+      <c r="Z277" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -21892,6 +25224,18 @@
       <c r="Y278" t="n">
         <v>10.1</v>
       </c>
+      <c r="Z278" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -21969,6 +25313,18 @@
       <c r="Y279" t="n">
         <v>10.66</v>
       </c>
+      <c r="Z279" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -22046,6 +25402,18 @@
       <c r="Y280" t="n">
         <v>10.72</v>
       </c>
+      <c r="Z280" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -22123,6 +25491,18 @@
       <c r="Y281" t="n">
         <v>10.65</v>
       </c>
+      <c r="Z281" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -22200,6 +25580,18 @@
       <c r="Y282" t="n">
         <v>10.62</v>
       </c>
+      <c r="Z282" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -22277,6 +25669,18 @@
       <c r="Y283" t="n">
         <v>8.970000000000001</v>
       </c>
+      <c r="Z283" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -22354,6 +25758,18 @@
       <c r="Y284" t="n">
         <v>9.33</v>
       </c>
+      <c r="Z284" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -22431,6 +25847,18 @@
       <c r="Y285" t="n">
         <v>9.33</v>
       </c>
+      <c r="Z285" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -22508,6 +25936,18 @@
       <c r="Y286" t="n">
         <v>9</v>
       </c>
+      <c r="Z286" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -22585,6 +26025,18 @@
       <c r="Y287" t="n">
         <v>10.63</v>
       </c>
+      <c r="Z287" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -22662,6 +26114,18 @@
       <c r="Y288" t="n">
         <v>10.43</v>
       </c>
+      <c r="Z288" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -22739,6 +26203,18 @@
       <c r="Y289" t="n">
         <v>9.68</v>
       </c>
+      <c r="Z289" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -22816,6 +26292,18 @@
       <c r="Y290" t="n">
         <v>10.64</v>
       </c>
+      <c r="Z290" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -22893,6 +26381,18 @@
       <c r="Y291" t="n">
         <v>10.84</v>
       </c>
+      <c r="Z291" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -22970,6 +26470,18 @@
       <c r="Y292" t="n">
         <v>10.94</v>
       </c>
+      <c r="Z292" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -23047,6 +26559,18 @@
       <c r="Y293" t="n">
         <v>10.63</v>
       </c>
+      <c r="Z293" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -23124,6 +26648,18 @@
       <c r="Y294" t="n">
         <v>10.5</v>
       </c>
+      <c r="Z294" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -23201,6 +26737,18 @@
       <c r="Y295" t="n">
         <v>10.31</v>
       </c>
+      <c r="Z295" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -23278,6 +26826,18 @@
       <c r="Y296" t="n">
         <v>10.68</v>
       </c>
+      <c r="Z296" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -23355,6 +26915,18 @@
       <c r="Y297" t="n">
         <v>10.65</v>
       </c>
+      <c r="Z297" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -23432,6 +27004,18 @@
       <c r="Y298" t="n">
         <v>10.61</v>
       </c>
+      <c r="Z298" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -23509,6 +27093,18 @@
       <c r="Y299" t="n">
         <v>10.46</v>
       </c>
+      <c r="Z299" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -23586,6 +27182,18 @@
       <c r="Y300" t="n">
         <v>10.64</v>
       </c>
+      <c r="Z300" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -23663,6 +27271,18 @@
       <c r="Y301" t="n">
         <v>9.390000000000001</v>
       </c>
+      <c r="Z301" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -23740,6 +27360,18 @@
       <c r="Y302" t="n">
         <v>9.06</v>
       </c>
+      <c r="Z302" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -23817,6 +27449,18 @@
       <c r="Y303" t="n">
         <v>10.52</v>
       </c>
+      <c r="Z303" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -23894,6 +27538,18 @@
       <c r="Y304" t="n">
         <v>10.28</v>
       </c>
+      <c r="Z304" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -23971,6 +27627,18 @@
       <c r="Y305" t="n">
         <v>10.95</v>
       </c>
+      <c r="Z305" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -24048,6 +27716,18 @@
       <c r="Y306" t="n">
         <v>10.68</v>
       </c>
+      <c r="Z306" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -24125,6 +27805,18 @@
       <c r="Y307" t="n">
         <v>10.95</v>
       </c>
+      <c r="Z307" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -24202,6 +27894,18 @@
       <c r="Y308" t="n">
         <v>9.779999999999999</v>
       </c>
+      <c r="Z308" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -24279,6 +27983,18 @@
       <c r="Y309" t="n">
         <v>9.699999999999999</v>
       </c>
+      <c r="Z309" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -24356,6 +28072,18 @@
       <c r="Y310" t="n">
         <v>9.470000000000001</v>
       </c>
+      <c r="Z310" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -24433,6 +28161,18 @@
       <c r="Y311" t="n">
         <v>8.859999999999999</v>
       </c>
+      <c r="Z311" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -24510,6 +28250,18 @@
       <c r="Y312" t="n">
         <v>8.380000000000001</v>
       </c>
+      <c r="Z312" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -24587,6 +28339,18 @@
       <c r="Y313" t="n">
         <v>8.43</v>
       </c>
+      <c r="Z313" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -24664,6 +28428,18 @@
       <c r="Y314" t="n">
         <v>8.32</v>
       </c>
+      <c r="Z314" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -24741,6 +28517,18 @@
       <c r="Y315" t="n">
         <v>9.41</v>
       </c>
+      <c r="Z315" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -24818,6 +28606,18 @@
       <c r="Y316" t="n">
         <v>10.4</v>
       </c>
+      <c r="Z316" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -24895,6 +28695,18 @@
       <c r="Y317" t="n">
         <v>9.44</v>
       </c>
+      <c r="Z317" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="AB317" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC317" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -24972,6 +28784,18 @@
       <c r="Y318" t="n">
         <v>10.67</v>
       </c>
+      <c r="Z318" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="AB318" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -25049,6 +28873,18 @@
       <c r="Y319" t="n">
         <v>10.47</v>
       </c>
+      <c r="Z319" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA319" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="AB319" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC319" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -25126,6 +28962,18 @@
       <c r="Y320" t="n">
         <v>10.48</v>
       </c>
+      <c r="Z320" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -25203,6 +29051,18 @@
       <c r="Y321" t="n">
         <v>10.64</v>
       </c>
+      <c r="Z321" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="AB321" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC321" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -25280,6 +29140,18 @@
       <c r="Y322" t="n">
         <v>10.61</v>
       </c>
+      <c r="Z322" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -25357,6 +29229,18 @@
       <c r="Y323" t="n">
         <v>10.49</v>
       </c>
+      <c r="Z323" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA323" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="AB323" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC323" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -25434,6 +29318,18 @@
       <c r="Y324" t="n">
         <v>10.58</v>
       </c>
+      <c r="Z324" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA324" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="AB324" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC324" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -25511,6 +29407,18 @@
       <c r="Y325" t="n">
         <v>9.359999999999999</v>
       </c>
+      <c r="Z325" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA325" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="AB325" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC325" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -25588,6 +29496,18 @@
       <c r="Y326" t="n">
         <v>10.47</v>
       </c>
+      <c r="Z326" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA326" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="AB326" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC326" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -25665,6 +29585,18 @@
       <c r="Y327" t="n">
         <v>10.41</v>
       </c>
+      <c r="Z327" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA327" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="AB327" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC327" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -25742,6 +29674,18 @@
       <c r="Y328" t="n">
         <v>10.93</v>
       </c>
+      <c r="Z328" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="AB328" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC328" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -25819,6 +29763,18 @@
       <c r="Y329" t="n">
         <v>10.68</v>
       </c>
+      <c r="Z329" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="AB329" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC329" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -25896,6 +29852,18 @@
       <c r="Y330" t="n">
         <v>10.78</v>
       </c>
+      <c r="Z330" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="AB330" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC330" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -25973,6 +29941,18 @@
       <c r="Y331" t="n">
         <v>10.75</v>
       </c>
+      <c r="Z331" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -26050,6 +30030,18 @@
       <c r="Y332" t="n">
         <v>11.94</v>
       </c>
+      <c r="Z332" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -26127,6 +30119,18 @@
       <c r="Y333" t="n">
         <v>10.58</v>
       </c>
+      <c r="Z333" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -26204,6 +30208,18 @@
       <c r="Y334" t="n">
         <v>10.7</v>
       </c>
+      <c r="Z334" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB334" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC334" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -26281,6 +30297,18 @@
       <c r="Y335" t="n">
         <v>10.62</v>
       </c>
+      <c r="Z335" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB335" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC335" t="n">
+        <v>10.19</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -26358,6 +30386,18 @@
       <c r="Y336" t="n">
         <v>10.25</v>
       </c>
+      <c r="Z336" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB336" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC336" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -26435,6 +30475,18 @@
       <c r="Y337" t="n">
         <v>10.48</v>
       </c>
+      <c r="Z337" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB337" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC337" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -26512,6 +30564,18 @@
       <c r="Y338" t="n">
         <v>10.65</v>
       </c>
+      <c r="Z338" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB338" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC338" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -26589,6 +30653,18 @@
       <c r="Y339" t="n">
         <v>9.31</v>
       </c>
+      <c r="Z339" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA339" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="AB339" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC339" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -26666,6 +30742,18 @@
       <c r="Y340" t="n">
         <v>8.890000000000001</v>
       </c>
+      <c r="Z340" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA340" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="AB340" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC340" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -26743,6 +30831,18 @@
       <c r="Y341" t="n">
         <v>9.02</v>
       </c>
+      <c r="Z341" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="AB341" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC341" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -26820,6 +30920,18 @@
       <c r="Y342" t="n">
         <v>8.99</v>
       </c>
+      <c r="Z342" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA342" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="AB342" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC342" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -26897,6 +31009,18 @@
       <c r="Y343" t="n">
         <v>9.02</v>
       </c>
+      <c r="Z343" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA343" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="AB343" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC343" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -26974,6 +31098,18 @@
       <c r="Y344" t="n">
         <v>10.5</v>
       </c>
+      <c r="Z344" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA344" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="AB344" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC344" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -27051,6 +31187,18 @@
       <c r="Y345" t="n">
         <v>10.67</v>
       </c>
+      <c r="Z345" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA345" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="AB345" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC345" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -27128,6 +31276,18 @@
       <c r="Y346" t="n">
         <v>9</v>
       </c>
+      <c r="Z346" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA346" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="AB346" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC346" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -27205,6 +31365,18 @@
       <c r="Y347" t="n">
         <v>9.039999999999999</v>
       </c>
+      <c r="Z347" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA347" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="AB347" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC347" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -27282,6 +31454,18 @@
       <c r="Y348" t="n">
         <v>10.09</v>
       </c>
+      <c r="Z348" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA348" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="AB348" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC348" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -27359,6 +31543,18 @@
       <c r="Y349" t="n">
         <v>8.869999999999999</v>
       </c>
+      <c r="Z349" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA349" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="AB349" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC349" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -27436,6 +31632,18 @@
       <c r="Y350" t="n">
         <v>9.06</v>
       </c>
+      <c r="Z350" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA350" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="AB350" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC350" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -27513,6 +31721,18 @@
       <c r="Y351" t="n">
         <v>10.44</v>
       </c>
+      <c r="Z351" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA351" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="AB351" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC351" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -27590,6 +31810,18 @@
       <c r="Y352" t="n">
         <v>10.47</v>
       </c>
+      <c r="Z352" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA352" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="AB352" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC352" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -27667,6 +31899,18 @@
       <c r="Y353" t="n">
         <v>9.94</v>
       </c>
+      <c r="Z353" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA353" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="AB353" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC353" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -27744,6 +31988,18 @@
       <c r="Y354" t="n">
         <v>9.69</v>
       </c>
+      <c r="Z354" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA354" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="AB354" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC354" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -27821,6 +32077,18 @@
       <c r="Y355" t="n">
         <v>9.050000000000001</v>
       </c>
+      <c r="Z355" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA355" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="AB355" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC355" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -27898,6 +32166,18 @@
       <c r="Y356" t="n">
         <v>8.859999999999999</v>
       </c>
+      <c r="Z356" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA356" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="AB356" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC356" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -27975,6 +32255,18 @@
       <c r="Y357" t="n">
         <v>9.220000000000001</v>
       </c>
+      <c r="Z357" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA357" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="AB357" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC357" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -28052,6 +32344,18 @@
       <c r="Y358" t="n">
         <v>10.42</v>
       </c>
+      <c r="Z358" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA358" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="AB358" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC358" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -28129,6 +32433,18 @@
       <c r="Y359" t="n">
         <v>9.01</v>
       </c>
+      <c r="Z359" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA359" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="AB359" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC359" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -28206,6 +32522,18 @@
       <c r="Y360" t="n">
         <v>9.01</v>
       </c>
+      <c r="Z360" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA360" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="AB360" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC360" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -28283,6 +32611,18 @@
       <c r="Y361" t="n">
         <v>9</v>
       </c>
+      <c r="Z361" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA361" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="AB361" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC361" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -28360,6 +32700,18 @@
       <c r="Y362" t="n">
         <v>8.710000000000001</v>
       </c>
+      <c r="Z362" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA362" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="AB362" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC362" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -28437,6 +32789,18 @@
       <c r="Y363" t="n">
         <v>9.029999999999999</v>
       </c>
+      <c r="Z363" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA363" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="AB363" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC363" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -28514,6 +32878,18 @@
       <c r="Y364" t="n">
         <v>8.84</v>
       </c>
+      <c r="Z364" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA364" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="AB364" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC364" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -28591,6 +32967,18 @@
       <c r="Y365" t="n">
         <v>8.699999999999999</v>
       </c>
+      <c r="Z365" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA365" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="AB365" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC365" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -28668,6 +33056,18 @@
       <c r="Y366" t="n">
         <v>8.859999999999999</v>
       </c>
+      <c r="Z366" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA366" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="AB366" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC366" t="n">
+        <v>9.449999999999999</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -28744,6 +33144,18 @@
       </c>
       <c r="Y367" t="n">
         <v>9.66</v>
+      </c>
+      <c r="Z367" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA367" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="AB367" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC367" t="n">
+        <v>10.05</v>
       </c>
     </row>
   </sheetData>
